--- a/expenses tracker in excel.xlsx
+++ b/expenses tracker in excel.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91765\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7A7721-B53B-4494-A8D1-D368FC81F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74B25D-8EFF-43EF-9F58-8D4D219E3FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3CA6D9D7-6B2F-491B-B97B-1A7C21B8D0A3}"/>
+    <workbookView showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3CA6D9D7-6B2F-491B-B97B-1A7C21B8D0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Expenses!$B$2:$E$32</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Expenses!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +234,12 @@
   </si>
   <si>
     <t>Powerbank</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
   </si>
 </sst>
 </file>
@@ -480,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,6 +519,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,6 +1453,989 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[expenses tracker in excel.xlsx]Dashboard2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19078499562554682"/>
+          <c:y val="0.19927456984543598"/>
+          <c:w val="0.41581364829396328"/>
+          <c:h val="0.69302274715660539"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard2!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Bills</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food and Dining</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Health care</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0_);_("₹"* \(#,##0\);_("₹"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A43B-4689-ACD4-4C2DBB2865E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[expenses tracker in excel.xlsx]Dashboard2!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard2!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Bills</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food and Dining</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Health care</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lifestyle</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Subscriptions</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Travel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("₹"* #,##0_);_("₹"* \(#,##0\);_("₹"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0705-4F5E-AA21-1863ECD4E542}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1773157759"/>
+        <c:axId val="1773165439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1773157759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773165439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1773165439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0_);_(&quot;₹&quot;* \(#,##0\);_(&quot;₹&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1773157759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1521,6 +2516,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
@@ -2553,6 +3628,1027 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4211,6 +6307,400 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444352</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139552</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9586E6A1-1957-0022-7F21-0A29EE8014F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>225351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F371A376-FE3C-4935-D693-82256FABB758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="91765" refreshedDate="45655.226321759263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{D6F86F65-B4B5-4062-A3C5-E986C2CAC04E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-12-01T00:00:00" maxDate="2024-12-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Travel"/>
+        <s v="Food and Dining"/>
+        <s v="Shopping"/>
+        <s v="Education"/>
+        <s v="Rent"/>
+        <s v="Health care"/>
+        <s v="Bills"/>
+        <s v="Subscriptions"/>
+        <s v="Lifestyle"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="42">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="5000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <s v="Delhi To Gurgaon"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2024-12-02T00:00:00"/>
+    <x v="1"/>
+    <s v="Pizza, Pasta and Dinner at xyz"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <d v="2024-12-03T00:00:00"/>
+    <x v="2"/>
+    <s v="Powerbank"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <d v="2024-12-04T00:00:00"/>
+    <x v="3"/>
+    <s v="Coaching Fee"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <d v="2024-12-05T00:00:00"/>
+    <x v="4"/>
+    <s v="Hostel rent Paid"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <d v="2024-12-06T00:00:00"/>
+    <x v="5"/>
+    <s v="Medicines"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <d v="2024-12-07T00:00:00"/>
+    <x v="0"/>
+    <s v="Gurgaon To Delhi"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2024-12-08T00:00:00"/>
+    <x v="6"/>
+    <s v="Electricity"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <d v="2024-12-09T00:00:00"/>
+    <x v="7"/>
+    <s v="Netflix ,Hotsar Subscription"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <d v="2024-12-10T00:00:00"/>
+    <x v="7"/>
+    <s v="leetcode,LinkedIn Subscription"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <d v="2024-12-11T00:00:00"/>
+    <x v="5"/>
+    <s v="Typhoid Treatment"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <d v="2024-12-12T00:00:00"/>
+    <x v="3"/>
+    <s v="Exam Fee"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <d v="2024-12-13T00:00:00"/>
+    <x v="3"/>
+    <s v="Stationary"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <d v="2024-12-14T00:00:00"/>
+    <x v="2"/>
+    <s v="Mouse and Keyboard"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <d v="2024-12-15T00:00:00"/>
+    <x v="6"/>
+    <s v="Water Bill"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <d v="2024-12-16T00:00:00"/>
+    <x v="1"/>
+    <s v="Lunch With Family at xyz "/>
+    <n v="800"/>
+  </r>
+  <r>
+    <d v="2024-12-17T00:00:00"/>
+    <x v="6"/>
+    <s v="Mobile Recharge"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <d v="2024-12-18T00:00:00"/>
+    <x v="8"/>
+    <s v="Haircut ad Grooming"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2024-12-19T00:00:00"/>
+    <x v="1"/>
+    <s v="Breakfast "/>
+    <n v="230"/>
+  </r>
+  <r>
+    <d v="2024-12-20T00:00:00"/>
+    <x v="1"/>
+    <s v="Dinner at Xyz Hotel"/>
+    <n v="760"/>
+  </r>
+  <r>
+    <d v="2024-12-21T00:00:00"/>
+    <x v="8"/>
+    <s v="Movies outing"/>
+    <n v="1050"/>
+  </r>
+  <r>
+    <d v="2024-12-22T00:00:00"/>
+    <x v="2"/>
+    <s v="airpods"/>
+    <n v="799"/>
+  </r>
+  <r>
+    <d v="2024-12-23T00:00:00"/>
+    <x v="1"/>
+    <s v="Birthday Celebration "/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <d v="2024-12-24T00:00:00"/>
+    <x v="2"/>
+    <s v="Clothes"/>
+    <n v="1400"/>
+  </r>
+  <r>
+    <d v="2024-12-25T00:00:00"/>
+    <x v="3"/>
+    <s v="Books and Pens"/>
+    <n v="430"/>
+  </r>
+  <r>
+    <d v="2024-12-26T00:00:00"/>
+    <x v="8"/>
+    <s v="Gym Fee"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <d v="2024-12-27T00:00:00"/>
+    <x v="5"/>
+    <s v="Eye Checkup"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <d v="2024-12-28T00:00:00"/>
+    <x v="0"/>
+    <s v="Saket to Pitampura"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <d v="2024-12-29T00:00:00"/>
+    <x v="0"/>
+    <s v="Pitampura to Saket"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <d v="2024-12-30T00:00:00"/>
+    <x v="0"/>
+    <s v="Cab"/>
+    <n v="1300"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE95321F-2BA6-462A-89D9-CCC248234251}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Category">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="42" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="42"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7573AF42-DA16-4021-8EFC-6CB8652DD703}" name="Table1" displayName="Table1" ref="B2:E32" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B2:E32" xr:uid="{7573AF42-DA16-4021-8EFC-6CB8652DD703}"/>
@@ -4523,8 +7013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF788A93-4EF7-42DF-BF20-F5D4FF2A81F5}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -4983,7 +7473,7 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -5160,4 +7650,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B313369C-CA86-47CE-B0BE-038CDBF8910E}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.0703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.92578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="21">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="21">
+        <v>40248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>